--- a/results/data/CDW2.2.xlsx
+++ b/results/data/CDW2.2.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3429189.341999998</v>
+        <v>3430060.892999995</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>466825.9979999995</v>
+        <v>466825.9979999998</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2302447.969000008</v>
+        <v>2650734.185000002</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/CDW2.2.xlsx
+++ b/results/data/CDW2.2.xlsx
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3430060.892999995</v>
+        <v>3447563.742999993</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -410,7 +410,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>466825.9979999998</v>
+        <v>458641.91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2650734.185000002</v>
+        <v>2250176.729000005</v>
       </c>
     </row>
   </sheetData>
